--- a/SPPSApi/Doc/Template/FS0810.xlsx
+++ b/SPPSApi/Doc/Template/FS0810.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>受入号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,10 @@
   </si>
   <si>
     <t>小品目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,28 +382,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0810.xlsx
+++ b/SPPSApi/Doc/Template/FS0810.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>受入号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,10 +31,6 @@
   </si>
   <si>
     <t>小品目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂家代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,9 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,33 +377,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0810.xlsx
+++ b/SPPSApi/Doc/Template/FS0810.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品番前5位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包材品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,6 +31,10 @@
   </si>
   <si>
     <t>厂家代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番前五位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,16 +400,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
